--- a/SWP/Week3/Docs/SWP_OnLineLearning_WeeklyReport_W2.xlsx
+++ b/SWP/Week3/Docs/SWP_OnLineLearning_WeeklyReport_W2.xlsx
@@ -81,6 +81,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Show sliders, hot posts, featured subjects + the sider with the latest posts, static contacts/links </t>
     </r>
     <r>
@@ -149,6 +155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Show the subjects paginatedly (sorted by updated date, paginated) + the sider with the subject search box, subject categories, featured subjects, and static contacts/links; </t>
     </r>
     <r>
@@ -262,6 +274,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>The user to input his/her email to receive the reset password link. This link is sent to the user's email for his/her password resetting.</t>
     </r>
     <r>
@@ -532,8 +550,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -628,14 +646,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -650,16 +660,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -674,8 +683,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,23 +730,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,8 +753,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,22 +777,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,14 +785,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,7 +823,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,25 +985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,139 +997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,15 +1339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1341,6 +1350,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,17 +1417,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,21 +1436,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,130 +1457,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10426,8 +10444,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
